--- a/doc/Productbacklog_group81.xlsx
+++ b/doc/Productbacklog_group81.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qmulprod-my.sharepoint.com/personal/jp2020213350_qmul_ac_uk/Documents/Documentation/Projects/Learing-Journey-System/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E1BCB-7B47-483F-B07C-E687C202FD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CB1E1BCB-7B47-483F-B07C-E687C202FD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F0A61F4-F5EF-46A5-829B-E0F591A806B8}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="8250" windowWidth="23290" windowHeight="13180" activeTab="1" xr2:uid="{3F49B288-6193-4DE7-9AC0-22A57B07F515}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{3F49B288-6193-4DE7-9AC0-22A57B07F515}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>Story ID</t>
   </si>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Record</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>very high</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,25 +93,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify record</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>E02.2</t>
   </si>
   <si>
-    <t>as a student, I want to modify relevant learning information in the record, so that I can update my outdated information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student, I want to delete the relevant learning information in the record, so that I can delete the wrong learning information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>E03.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,53 +104,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>as a student, I want to check my GPA and ranking, so that I can check my study</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>E03.2</t>
   </si>
   <si>
-    <t>View Course Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>View the tree of skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>as a student, I want to record my skills in a simple form so that I can integrate all individual skills</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>View experience</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student I want to view my experience, so that I can present my experience in an intuitive way</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student I want to view my tree of skill, so that I can present my individual skills in an intuitive way</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student, I want to view a simple course description from my learned course, so that I can faster recall of relevant lessons</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>low</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>View statistical indicators (GPA &amp; Ranking)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>View Course grades</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>as a student, I want to check my course grades, so that I can check my study</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,230 +127,323 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Exporting personal information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exporting accessories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>E05.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student I want to generate a learning journey overview report with one click, so that I can easily integrate my 6-year learning journey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student I want to exporting the accessories, so that I can easily gather credible information about myself</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student I want to generate my CV, so that I can easily and systematically understand my own learning process and turn it into a useful CV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>middle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E06.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assessment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recommended target colleges</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student, I want to generate one-click evaluation and suggestions for my study abroad based on my personal information, so that I can plan my future according to my own information, and provide guidance or reference for my application abroad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student, I want to get recommended colleges based on my personal information, so that I can reasonable arrangement of my selection and application for the target colleges and universities</t>
+    <t>as a student I want to exporting my personal information, so that I can easily check my personal data.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify personal information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student, I want to modify my personal information in the record, so that I can update my outdated personal information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, verify that The corresponding outdated information is completely removed.    2, verify that The corresponding updated information is fully stored (can be viewed) 3. verify that the submitted form is not empty, else Refuse to submit and popup prompt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit the application</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">as a user, I want to exit the application, so that I can quit to finish my use </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify that the exit button work to end the program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E00.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student, I want to enter my account number and password to log in, so that I can go to my own account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify that the user enter account and password; 2. verify the account and password are corresponding; 3. if they 're corresponding, enter the account, if else, refuse the login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add new honor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student, I want to be free to
+add my honor, so that I can add my honor information myself</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify that The corresponding information is fully stored  (can be viewed) 2. verify that the submitted form is not empty, else Refuse to submit and popup prompt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02.3</t>
+  </si>
+  <si>
+    <t>delete existing honor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">as a student, I want to delete the honor in the record, so that I can delete the honor I don’t need </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify that The corresponding  information is completely removed. (can not be viewed)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view all grades</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view high</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify that all the course grades are displayed;          2. verify the correct information is displayed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02.4</t>
+  </si>
+  <si>
+    <t>add new project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student, I want to be free to
+add my project, so that I can add my project myself</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02.5</t>
+  </si>
+  <si>
+    <t>delete existing project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">as a student, I want to delete the project in the record, so that I can delete the project I don’t need </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03.4</t>
+  </si>
+  <si>
+    <t>view all honors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student I want to view my honors, so that I can present my honors in an intuitive way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> view high</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify all the honors are displayed;  2. verify all the honors are correctly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03.5</t>
+  </si>
+  <si>
+    <t>view all projects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student I want to view my projects, so that I can present my projects in an intuitive way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify all the projects are displayed;   2. verify all the projects are correctly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E00.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student, I want a navigation interface so that I can access all the modules I need clearly and easily</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify that the interface covers all the functions; 2. verify that the interface can jump to correspond function;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03.3</t>
+  </si>
+  <si>
+    <t>view statistic information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student, I want to check my statistic information (GPA and ranking), so that I can check my study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. verify the correct information is displayed;   2. varify the algorithm work normally </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view personal information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student, I want to check my personal information, so that I can verify the information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify the correct information is displayed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02.6</t>
+  </si>
+  <si>
+    <t>add new skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02.7</t>
+  </si>
+  <si>
+    <t>delect existing skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">as a student, I want to delete the skill in the record, so that I can delete the skill I don’t need </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03.6</t>
+  </si>
+  <si>
+    <t>view all skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a student I want to view my skills, so that I can present my skills in an intuitive way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify all the skills are displayed;   2. verify all the skills are correctly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03.7</t>
+  </si>
+  <si>
+    <t>view learning journey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">as a student I want to view my learning journey, so that I can I can easily integrate my learning journey in an visual way </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify all the information is displayed; 2. verify all the information is correct   3. verify the learning journey generate in correct format</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E00.4</t>
+  </si>
+  <si>
+    <t>back page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">as a student, I want to have the back button when I use the application, so that I can go back to the previous page </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify the back botton can work to bring the user to the page previous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try to implement it in all modules</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>export personal data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. verify that the file is export in .json  2. verify that the personal information is correctly export;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E00.3</t>
+  </si>
+  <si>
+    <t>Integrate functions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">as a student, I want the module interfaces can integrate its all functions in few pages, so that I can implement the functions I need according to clear logic </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, verify the functions about the module integrate below 3 pages; 2. verify the functions work as usual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>We incorporated this functionality into E02-manage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input-record</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E01.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student, I want to be free to
-Enter my own project experience, receive awards, so that I can add my learning information myself</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E03.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E03.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E03.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E04.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E05.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E06.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select target areas and colleges to recommend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, verify that student submit a JSON file.    2, verify that the information display correctly as content of JSON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, verify that the edits can be stored locally.    2, verify that the edited information is display correctly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, verify that the edits can be stored locally.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, verify that The corresponding outdated information is completely removed.    2, verify that The corresponding updated information is fully stored</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, verify that The corresponding  information is completely removed.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, verify that The corresponding GPA and Ranking information is correctly display</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, verify that The corresponding course grades information is correctly display</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, if click the course button, the course description would jump out and show correctly.   2, verify that the course description is related to the clicked button course.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, verify that the content of the tree of skill is not empty.                                2, verify that the tree of skill correctly display the stored content
-3, verify that correctly display the format of the tree of skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>○verify that the content of the experience is not empty
-○verify that the experience correctly display the stored content
-○verify that correctly display the format of the experience</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose the export file format yourself</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>○verify that the content of the information is not empty
-○verify that the information correctly display the stored content
-○verify that correctly display the format of the information
-○verify that correctly export the information as display
-○verify that the exported file is match to the chosen format</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>○verify that the accessories is not empty
-○verify that the accessories correctly display the stored content
-○verify that the accessories can be freely choose 
-○verify that correctly export the accessories chosen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>○verify that the generation function with one click
-○verify that the exported information is same as storied information
-○verify that the learning journey report show in the correct format</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>○verify that the generation function
-○verify that the exported information is same as storied information
-○verify that the CV show in the correct format</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student I want to exporting my personal information, so that I can easily check my personal data.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>○verify that the recommend function
-○verify that the input information is correct
-○verify that the Select target areas and colleges work normally
-○verify that the output recommend in a correct format</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>○verify that the assessment function
-○verify that the input information is correct
-○verify that the output assessment is in a correct format</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>as a student, I want to Import my academic achievements and awards, so that I can import my information form the school's educational system conveniently</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Import academic achievements and awards</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter project experience, receive awards, etc. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Record the tree of skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete record</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate learning journey report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate CV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate Study abroad assessment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +487,30 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2A2B2E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +527,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE4"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -503,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +610,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,119 +747,120 @@
                     <c:v>very high</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>very high</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>high</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>very high</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>very high</c:v>
+                    <c:v>view high</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>low</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>very high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>as a student, I want to Import my academic achievements and awards, so that I can import my information form the school's educational system conveniently</c:v>
+                    <c:v>as a student, I want to modify my personal information in the record, so that I can update my outdated personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>as a user, I want to exit the application, so that I can quit to finish my use </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>as a student, I want to enter my account number and password to log in, so that I can go to my own account</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>as a student, I want to be free to
-Enter my own project experience, receive awards, so that I can add my learning information myself</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>as a student, I want to record my skills in a simple form so that I can integrate all individual skills</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>as a student, I want to modify relevant learning information in the record, so that I can update my outdated information</c:v>
+add my honor, so that I can add my honor information myself</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>as a student, I want to delete the relevant learning information in the record, so that I can delete the wrong learning information</c:v>
+                    <c:v>as a student, I want to delete the honor in the record, so that I can delete the honor I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>as a student, I want to check my GPA and ranking, so that I can check my study</c:v>
+                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
+                    <c:v>as a student, I want to be free to
+add my project, so that I can add my project myself</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>as a student, I want to view a simple course description from my learned course, so that I can faster recall of relevant lessons</c:v>
+                    <c:v>as a student, I want to delete the project in the record, so that I can delete the project I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>as a student I want to view my tree of skill, so that I can present my individual skills in an intuitive way</c:v>
+                    <c:v>as a student I want to view my honors, so that I can present my honors in an intuitive way</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>as a student I want to view my experience, so that I can present my experience in an intuitive way</c:v>
+                    <c:v>as a student I want to view my projects, so that I can present my projects in an intuitive way</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Import academic achievements and awards</c:v>
+                    <c:v>modify personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Enter project experience, receive awards, etc. </c:v>
+                    <c:v>exit the application</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record the tree of skill</c:v>
+                    <c:v>login</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Modify record</c:v>
+                    <c:v>add new honor</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Delete record</c:v>
+                    <c:v>delete existing honor</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>View statistical indicators (GPA &amp; Ranking)</c:v>
+                    <c:v>view all grades</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>View Course grades</c:v>
+                    <c:v>add new project</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>View Course Description</c:v>
+                    <c:v>delete existing project</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>View the tree of skill</c:v>
+                    <c:v>view all honors</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>View experience</c:v>
+                    <c:v>view all projects</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Record</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Record</c:v>
+                    <c:v>exit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record</c:v>
+                    <c:v>interface</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>view</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>view</c:v>
@@ -751,28 +871,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>E01.1</c:v>
+                    <c:v>E02.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>E01.2</c:v>
+                    <c:v>E05.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>E01.3</c:v>
+                    <c:v>E00.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E02.1</c:v>
+                    <c:v>E02.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>E02.2</c:v>
+                    <c:v>E02.3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>E03.1</c:v>
+                    <c:v>E03.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>E03.2</c:v>
+                    <c:v>E02.4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>E03.3</c:v>
+                    <c:v>E02.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>E03.4</c:v>
@@ -806,19 +926,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,119 +986,120 @@
                     <c:v>very high</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>very high</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>high</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>very high</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>very high</c:v>
+                    <c:v>view high</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>low</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>very high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>as a student, I want to Import my academic achievements and awards, so that I can import my information form the school's educational system conveniently</c:v>
+                    <c:v>as a student, I want to modify my personal information in the record, so that I can update my outdated personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>as a user, I want to exit the application, so that I can quit to finish my use </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>as a student, I want to enter my account number and password to log in, so that I can go to my own account</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>as a student, I want to be free to
-Enter my own project experience, receive awards, so that I can add my learning information myself</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>as a student, I want to record my skills in a simple form so that I can integrate all individual skills</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>as a student, I want to modify relevant learning information in the record, so that I can update my outdated information</c:v>
+add my honor, so that I can add my honor information myself</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>as a student, I want to delete the relevant learning information in the record, so that I can delete the wrong learning information</c:v>
+                    <c:v>as a student, I want to delete the honor in the record, so that I can delete the honor I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>as a student, I want to check my GPA and ranking, so that I can check my study</c:v>
+                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
+                    <c:v>as a student, I want to be free to
+add my project, so that I can add my project myself</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>as a student, I want to view a simple course description from my learned course, so that I can faster recall of relevant lessons</c:v>
+                    <c:v>as a student, I want to delete the project in the record, so that I can delete the project I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>as a student I want to view my tree of skill, so that I can present my individual skills in an intuitive way</c:v>
+                    <c:v>as a student I want to view my honors, so that I can present my honors in an intuitive way</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>as a student I want to view my experience, so that I can present my experience in an intuitive way</c:v>
+                    <c:v>as a student I want to view my projects, so that I can present my projects in an intuitive way</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Import academic achievements and awards</c:v>
+                    <c:v>modify personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Enter project experience, receive awards, etc. </c:v>
+                    <c:v>exit the application</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record the tree of skill</c:v>
+                    <c:v>login</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Modify record</c:v>
+                    <c:v>add new honor</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Delete record</c:v>
+                    <c:v>delete existing honor</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>View statistical indicators (GPA &amp; Ranking)</c:v>
+                    <c:v>view all grades</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>View Course grades</c:v>
+                    <c:v>add new project</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>View Course Description</c:v>
+                    <c:v>delete existing project</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>View the tree of skill</c:v>
+                    <c:v>view all honors</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>View experience</c:v>
+                    <c:v>view all projects</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Record</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Record</c:v>
+                    <c:v>exit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record</c:v>
+                    <c:v>interface</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>view</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>view</c:v>
@@ -989,28 +1110,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>E01.1</c:v>
+                    <c:v>E02.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>E01.2</c:v>
+                    <c:v>E05.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>E01.3</c:v>
+                    <c:v>E00.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E02.1</c:v>
+                    <c:v>E02.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>E02.2</c:v>
+                    <c:v>E02.3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>E03.1</c:v>
+                    <c:v>E03.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>E03.2</c:v>
+                    <c:v>E02.4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>E03.3</c:v>
+                    <c:v>E02.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>E03.4</c:v>
@@ -1104,119 +1225,120 @@
                     <c:v>very high</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>very high</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>high</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>very high</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>very high</c:v>
+                    <c:v>view high</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>low</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>very high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>as a student, I want to Import my academic achievements and awards, so that I can import my information form the school's educational system conveniently</c:v>
+                    <c:v>as a student, I want to modify my personal information in the record, so that I can update my outdated personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>as a user, I want to exit the application, so that I can quit to finish my use </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>as a student, I want to enter my account number and password to log in, so that I can go to my own account</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>as a student, I want to be free to
-Enter my own project experience, receive awards, so that I can add my learning information myself</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>as a student, I want to record my skills in a simple form so that I can integrate all individual skills</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>as a student, I want to modify relevant learning information in the record, so that I can update my outdated information</c:v>
+add my honor, so that I can add my honor information myself</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>as a student, I want to delete the relevant learning information in the record, so that I can delete the wrong learning information</c:v>
+                    <c:v>as a student, I want to delete the honor in the record, so that I can delete the honor I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>as a student, I want to check my GPA and ranking, so that I can check my study</c:v>
+                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
+                    <c:v>as a student, I want to be free to
+add my project, so that I can add my project myself</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>as a student, I want to view a simple course description from my learned course, so that I can faster recall of relevant lessons</c:v>
+                    <c:v>as a student, I want to delete the project in the record, so that I can delete the project I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>as a student I want to view my tree of skill, so that I can present my individual skills in an intuitive way</c:v>
+                    <c:v>as a student I want to view my honors, so that I can present my honors in an intuitive way</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>as a student I want to view my experience, so that I can present my experience in an intuitive way</c:v>
+                    <c:v>as a student I want to view my projects, so that I can present my projects in an intuitive way</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Import academic achievements and awards</c:v>
+                    <c:v>modify personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Enter project experience, receive awards, etc. </c:v>
+                    <c:v>exit the application</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record the tree of skill</c:v>
+                    <c:v>login</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Modify record</c:v>
+                    <c:v>add new honor</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Delete record</c:v>
+                    <c:v>delete existing honor</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>View statistical indicators (GPA &amp; Ranking)</c:v>
+                    <c:v>view all grades</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>View Course grades</c:v>
+                    <c:v>add new project</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>View Course Description</c:v>
+                    <c:v>delete existing project</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>View the tree of skill</c:v>
+                    <c:v>view all honors</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>View experience</c:v>
+                    <c:v>view all projects</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Record</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Record</c:v>
+                    <c:v>exit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record</c:v>
+                    <c:v>interface</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>view</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>view</c:v>
@@ -1227,28 +1349,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>E01.1</c:v>
+                    <c:v>E02.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>E01.2</c:v>
+                    <c:v>E05.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>E01.3</c:v>
+                    <c:v>E00.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E02.1</c:v>
+                    <c:v>E02.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>E02.2</c:v>
+                    <c:v>E02.3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>E03.1</c:v>
+                    <c:v>E03.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>E03.2</c:v>
+                    <c:v>E02.4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>E03.3</c:v>
+                    <c:v>E02.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>E03.4</c:v>
@@ -1312,119 +1434,120 @@
                     <c:v>very high</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>very high</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>high</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>very high</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>very high</c:v>
+                    <c:v>view high</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>low</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>very high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>as a student, I want to Import my academic achievements and awards, so that I can import my information form the school's educational system conveniently</c:v>
+                    <c:v>as a student, I want to modify my personal information in the record, so that I can update my outdated personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>as a user, I want to exit the application, so that I can quit to finish my use </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>as a student, I want to enter my account number and password to log in, so that I can go to my own account</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>as a student, I want to be free to
-Enter my own project experience, receive awards, so that I can add my learning information myself</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>as a student, I want to record my skills in a simple form so that I can integrate all individual skills</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>as a student, I want to modify relevant learning information in the record, so that I can update my outdated information</c:v>
+add my honor, so that I can add my honor information myself</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>as a student, I want to delete the relevant learning information in the record, so that I can delete the wrong learning information</c:v>
+                    <c:v>as a student, I want to delete the honor in the record, so that I can delete the honor I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>as a student, I want to check my GPA and ranking, so that I can check my study</c:v>
+                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
+                    <c:v>as a student, I want to be free to
+add my project, so that I can add my project myself</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>as a student, I want to view a simple course description from my learned course, so that I can faster recall of relevant lessons</c:v>
+                    <c:v>as a student, I want to delete the project in the record, so that I can delete the project I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>as a student I want to view my tree of skill, so that I can present my individual skills in an intuitive way</c:v>
+                    <c:v>as a student I want to view my honors, so that I can present my honors in an intuitive way</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>as a student I want to view my experience, so that I can present my experience in an intuitive way</c:v>
+                    <c:v>as a student I want to view my projects, so that I can present my projects in an intuitive way</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Import academic achievements and awards</c:v>
+                    <c:v>modify personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Enter project experience, receive awards, etc. </c:v>
+                    <c:v>exit the application</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record the tree of skill</c:v>
+                    <c:v>login</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Modify record</c:v>
+                    <c:v>add new honor</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Delete record</c:v>
+                    <c:v>delete existing honor</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>View statistical indicators (GPA &amp; Ranking)</c:v>
+                    <c:v>view all grades</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>View Course grades</c:v>
+                    <c:v>add new project</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>View Course Description</c:v>
+                    <c:v>delete existing project</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>View the tree of skill</c:v>
+                    <c:v>view all honors</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>View experience</c:v>
+                    <c:v>view all projects</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Record</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Record</c:v>
+                    <c:v>exit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record</c:v>
+                    <c:v>interface</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>view</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>view</c:v>
@@ -1435,28 +1558,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>E01.1</c:v>
+                    <c:v>E02.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>E01.2</c:v>
+                    <c:v>E05.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>E01.3</c:v>
+                    <c:v>E00.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E02.1</c:v>
+                    <c:v>E02.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>E02.2</c:v>
+                    <c:v>E02.3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>E03.1</c:v>
+                    <c:v>E03.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>E03.2</c:v>
+                    <c:v>E02.4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>E03.3</c:v>
+                    <c:v>E02.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>E03.4</c:v>
@@ -1475,13 +1598,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1490,7 +1613,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1550,119 +1673,120 @@
                     <c:v>very high</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>very high</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>high</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>very high</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>very high</c:v>
+                    <c:v>view high</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>low</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>very high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>as a student, I want to Import my academic achievements and awards, so that I can import my information form the school's educational system conveniently</c:v>
+                    <c:v>as a student, I want to modify my personal information in the record, so that I can update my outdated personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>as a user, I want to exit the application, so that I can quit to finish my use </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>as a student, I want to enter my account number and password to log in, so that I can go to my own account</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>as a student, I want to be free to
-Enter my own project experience, receive awards, so that I can add my learning information myself</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>as a student, I want to record my skills in a simple form so that I can integrate all individual skills</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>as a student, I want to modify relevant learning information in the record, so that I can update my outdated information</c:v>
+add my honor, so that I can add my honor information myself</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>as a student, I want to delete the relevant learning information in the record, so that I can delete the wrong learning information</c:v>
+                    <c:v>as a student, I want to delete the honor in the record, so that I can delete the honor I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>as a student, I want to check my GPA and ranking, so that I can check my study</c:v>
+                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
+                    <c:v>as a student, I want to be free to
+add my project, so that I can add my project myself</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>as a student, I want to view a simple course description from my learned course, so that I can faster recall of relevant lessons</c:v>
+                    <c:v>as a student, I want to delete the project in the record, so that I can delete the project I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>as a student I want to view my tree of skill, so that I can present my individual skills in an intuitive way</c:v>
+                    <c:v>as a student I want to view my honors, so that I can present my honors in an intuitive way</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>as a student I want to view my experience, so that I can present my experience in an intuitive way</c:v>
+                    <c:v>as a student I want to view my projects, so that I can present my projects in an intuitive way</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Import academic achievements and awards</c:v>
+                    <c:v>modify personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Enter project experience, receive awards, etc. </c:v>
+                    <c:v>exit the application</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record the tree of skill</c:v>
+                    <c:v>login</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Modify record</c:v>
+                    <c:v>add new honor</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Delete record</c:v>
+                    <c:v>delete existing honor</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>View statistical indicators (GPA &amp; Ranking)</c:v>
+                    <c:v>view all grades</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>View Course grades</c:v>
+                    <c:v>add new project</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>View Course Description</c:v>
+                    <c:v>delete existing project</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>View the tree of skill</c:v>
+                    <c:v>view all honors</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>View experience</c:v>
+                    <c:v>view all projects</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Record</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Record</c:v>
+                    <c:v>exit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record</c:v>
+                    <c:v>interface</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>view</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>view</c:v>
@@ -1673,28 +1797,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>E01.1</c:v>
+                    <c:v>E02.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>E01.2</c:v>
+                    <c:v>E05.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>E01.3</c:v>
+                    <c:v>E00.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E02.1</c:v>
+                    <c:v>E02.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>E02.2</c:v>
+                    <c:v>E02.3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>E03.1</c:v>
+                    <c:v>E03.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>E03.2</c:v>
+                    <c:v>E02.4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>E03.3</c:v>
+                    <c:v>E02.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>E03.4</c:v>
@@ -1710,8 +1834,38 @@
             <c:numRef>
               <c:f>Sheet1!$J$2:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45037</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1758,119 +1912,120 @@
                     <c:v>very high</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>very high</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>high</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>very high</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>very high</c:v>
+                    <c:v>view high</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>very high</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>low</c:v>
+                    <c:v>high</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>very high</c:v>
+                    <c:v> view high</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>as a student, I want to Import my academic achievements and awards, so that I can import my information form the school's educational system conveniently</c:v>
+                    <c:v>as a student, I want to modify my personal information in the record, so that I can update my outdated personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>as a user, I want to exit the application, so that I can quit to finish my use </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>as a student, I want to enter my account number and password to log in, so that I can go to my own account</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>as a student, I want to be free to
-Enter my own project experience, receive awards, so that I can add my learning information myself</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>as a student, I want to record my skills in a simple form so that I can integrate all individual skills</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>as a student, I want to modify relevant learning information in the record, so that I can update my outdated information</c:v>
+add my honor, so that I can add my honor information myself</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>as a student, I want to delete the relevant learning information in the record, so that I can delete the wrong learning information</c:v>
+                    <c:v>as a student, I want to delete the honor in the record, so that I can delete the honor I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>as a student, I want to check my GPA and ranking, so that I can check my study</c:v>
+                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>as a student, I want to check my course grades, so that I can check my study</c:v>
+                    <c:v>as a student, I want to be free to
+add my project, so that I can add my project myself</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>as a student, I want to view a simple course description from my learned course, so that I can faster recall of relevant lessons</c:v>
+                    <c:v>as a student, I want to delete the project in the record, so that I can delete the project I don’t need </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>as a student I want to view my tree of skill, so that I can present my individual skills in an intuitive way</c:v>
+                    <c:v>as a student I want to view my honors, so that I can present my honors in an intuitive way</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>as a student I want to view my experience, so that I can present my experience in an intuitive way</c:v>
+                    <c:v>as a student I want to view my projects, so that I can present my projects in an intuitive way</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Import academic achievements and awards</c:v>
+                    <c:v>modify personal information</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Enter project experience, receive awards, etc. </c:v>
+                    <c:v>exit the application</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record the tree of skill</c:v>
+                    <c:v>login</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Modify record</c:v>
+                    <c:v>add new honor</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Delete record</c:v>
+                    <c:v>delete existing honor</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>View statistical indicators (GPA &amp; Ranking)</c:v>
+                    <c:v>view all grades</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>View Course grades</c:v>
+                    <c:v>add new project</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>View Course Description</c:v>
+                    <c:v>delete existing project</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>View the tree of skill</c:v>
+                    <c:v>view all honors</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>View experience</c:v>
+                    <c:v>view all projects</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Record</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Record</c:v>
+                    <c:v>exit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Record</c:v>
+                    <c:v>interface</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>management</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>view</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>view</c:v>
+                    <c:v>manage</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>view</c:v>
@@ -1881,28 +2036,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>E01.1</c:v>
+                    <c:v>E02.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>E01.2</c:v>
+                    <c:v>E05.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>E01.3</c:v>
+                    <c:v>E00.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E02.1</c:v>
+                    <c:v>E02.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>E02.2</c:v>
+                    <c:v>E02.3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>E03.1</c:v>
+                    <c:v>E03.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>E03.2</c:v>
+                    <c:v>E02.4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>E03.3</c:v>
+                    <c:v>E02.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>E03.4</c:v>
@@ -1918,8 +2073,38 @@
             <c:numRef>
               <c:f>Sheet1!$K$2:$K$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45030</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45039</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2674,7 +2859,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C7CF77D8-06B7-4433-9D43-7BD97E2F3133}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2685,7 +2870,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9295876" cy="6068505"/>
+    <xdr:ext cx="9296105" cy="6069419"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -3011,10 +3196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016F4C0E-71AD-487C-86E0-C4E66B4ECCB8}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3051,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -3059,349 +3244,391 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
+    <row r="2" spans="1:11" ht="98" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>45014</v>
+      </c>
+      <c r="K2" s="8">
+        <v>45016</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>52</v>
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>45015</v>
+      </c>
+      <c r="K3" s="8">
+        <v>45016</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" ht="70" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>45015</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="70" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="8">
+        <v>45028</v>
+      </c>
+      <c r="K5" s="8">
+        <v>45029</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
+      <c r="A6" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="8">
+        <v>45028</v>
+      </c>
+      <c r="K6" s="8">
+        <v>45029</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5">
-        <v>3</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>45029</v>
+      </c>
+      <c r="K7" s="8">
+        <v>45030</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
+    <row r="8" spans="1:11" ht="70" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="8">
+        <v>45034</v>
+      </c>
+      <c r="K8" s="8">
+        <v>45034</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="70" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="8">
+        <v>45034</v>
+      </c>
+      <c r="K9" s="8">
+        <v>45034</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>55</v>
+    <row r="10" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
         <v>3</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="8">
+        <v>45037</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45039</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>56</v>
+    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
         <v>3</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="8">
+        <v>45037</v>
+      </c>
+      <c r="K11" s="8">
+        <v>45039</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" ht="140" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
+    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <v>3</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="J12" s="8">
+        <v>45028</v>
+      </c>
+      <c r="K12" s="8">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="5">
-        <v>8</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="98" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -3411,182 +3638,292 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>45047</v>
+      </c>
+      <c r="K13" s="8">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="5">
         <v>3</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5">
-        <v>4</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
-        <v>13</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>45050</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45050</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="70" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>58</v>
+      <c r="A15" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>45053</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="70" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5">
-        <v>5</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>45053</v>
+      </c>
+      <c r="K16" s="8">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8">
+        <v>45054</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45055</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="98" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="5">
+    <row r="18" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>8</v>
+      </c>
+      <c r="J18" s="8">
+        <v>45048</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5">
+        <v>13</v>
+      </c>
+      <c r="J19" s="8">
+        <v>45058</v>
+      </c>
+      <c r="K19" s="8">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="5">
-        <v>8</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J20" s="8">
+        <v>45056</v>
+      </c>
+      <c r="K20" s="8">
+        <v>45070</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5">
+        <v>13</v>
+      </c>
+      <c r="J21" s="8">
+        <v>45056</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45071</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -3594,9 +3931,55 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="A23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K2" xr:uid="{016F4C0E-71AD-487C-86E0-C4E66B4ECCB8}"/>
@@ -3829,18 +4212,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3863,14 +4246,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DEC320-5407-47DA-ABB0-7C9729B21469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{505B186A-8BDD-411D-9989-B68DF90A4393}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3885,4 +4260,12 @@
     <ds:schemaRef ds:uri="cf5851a7-4765-49f8-89fa-a7fe7983a9cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DEC320-5407-47DA-ABB0-7C9729B21469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>